--- a/Metropolitan Roads/28921/ITP-091-CIV-PSDS-Conduit & Pits-MTM Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-091-CIV-PSDS-Conduit & Pits-MTM Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-091-CIV-PSDS-Conduits and Pits-MTM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62694829-7E87-45CE-AA1E-8D4E6814BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB3E73-1E17-45BF-BAB0-7D6365C7F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="495" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1557,6 +1557,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1574,66 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2051,9 +2051,9 @@
         <v>0</v>
       </c>
       <c r="C1" s="60"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -2076,9 +2076,9 @@
         <v>194</v>
       </c>
       <c r="D3" s="59"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -2144,25 +2144,25 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="21" t="s">
         <v>11</v>
       </c>
@@ -2177,12 +2177,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="14" t="s">
         <v>12</v>
       </c>
@@ -2193,12 +2193,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="O14" s="1"/>
@@ -2207,15 +2207,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="O15" s="1"/>
@@ -2241,43 +2241,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80" t="s">
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="J17" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="90" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="50" t="s">
         <v>22</v>
       </c>
@@ -2287,10 +2287,10 @@
       <c r="G18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="80"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="90"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -2298,18 +2298,18 @@
       <c r="A19" s="18">
         <v>1</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
@@ -2350,18 +2350,18 @@
       <c r="A21" s="18">
         <v>2</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
@@ -2615,18 +2615,18 @@
       <c r="A30" s="18">
         <v>3</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
     </row>
     <row r="31" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A31" s="66">
@@ -2694,18 +2694,18 @@
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="43">
@@ -2773,18 +2773,18 @@
       <c r="A36" s="18">
         <v>5</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
@@ -2909,9 +2909,9 @@
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
     </row>
     <row r="41" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
@@ -2943,9 +2943,9 @@
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
     </row>
     <row r="42" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
@@ -3132,9 +3132,9 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
     </row>
     <row r="48" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
@@ -3654,18 +3654,18 @@
       <c r="A64" s="18">
         <v>6</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
     </row>
     <row r="65" spans="1:11" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
@@ -3793,46 +3793,46 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="23"/>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="71"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="73"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="93"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="72"/>
-      <c r="J71" s="72"/>
-      <c r="K71" s="73"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="93"/>
     </row>
     <row r="72" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
@@ -3851,20 +3851,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B64:K64"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B69:K69"/>
+    <mergeCell ref="B70:K71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L47:N47"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="K17:K18"/>
@@ -3874,11 +3865,20 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B69:K69"/>
-    <mergeCell ref="B70:K71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="E12:I12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3930,65 +3930,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C96CAB8B48E1334FAE78A028CF8CD9DB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cae4ebea80323c881993e9410f83e5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns3="e735f093-acf6-4c16-80a4-869ab95199d6" xmlns:ns4="3be47954-cb7c-45b2-ab7a-53ada5817909" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3078c40966828f0157d3386fa3bf5db1" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
@@ -4249,6 +4190,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
@@ -4271,22 +4271,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BEAE409-F48D-4FC7-88D9-ACED1776FC8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4304,4 +4288,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>